--- a/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/freeze/ce-uniform/37622020/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/freeze/ce-uniform/37622020/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9804413318634033</v>
+        <v>0.9663807153701782</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9802707433700562</v>
+        <v>0.9661538004875183</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9790881276130676</v>
+        <v>0.964324951171875</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7107988595962524</v>
+        <v>0.6056110262870789</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.981465220451355</v>
+        <v>0.9679924249649048</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9821850657463074</v>
+        <v>0.969109833240509</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.982054591178894</v>
+        <v>0.9689006209373474</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9816252589225769</v>
+        <v>0.9682632684707642</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.982054591178894</v>
+        <v>0.9689006209373474</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5930336117744446</v>
+        <v>0.5047747492790222</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9834342002868652</v>
+        <v>0.9710822701454163</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9141612648963928</v>
+        <v>0.8610520958900452</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9811914563179016</v>
+        <v>0.9675570130348206</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9812371134757996</v>
+        <v>0.9676335453987122</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9814870357513428</v>
+        <v>0.9680215120315552</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9815355539321899</v>
+        <v>0.9680728912353516</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3013470768928528</v>
+        <v>0.2981251180171967</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9826053380966187</v>
+        <v>0.9697506427764893</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9829108119010925</v>
+        <v>0.9702123403549194</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9793503880500793</v>
+        <v>0.9647458791732788</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9812896847724915</v>
+        <v>0.9677001237869263</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9826005101203918</v>
+        <v>0.9697544574737549</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9829875230789185</v>
+        <v>0.9703590273857117</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7093051075935364</v>
+        <v>0.6046127080917358</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2899947166442871</v>
+        <v>0.290525883436203</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9804629683494568</v>
+        <v>0.9664362668991089</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9802707433700562</v>
+        <v>0.9661538004875183</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9794543385505676</v>
+        <v>0.9649034142494202</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9814838767051697</v>
+        <v>0.9680109024047852</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9803220629692078</v>
+        <v>0.9662116765975952</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9822841286659241</v>
+        <v>0.9692515730857849</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8418684601783752</v>
+        <v>0.7912854552268982</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9146707057952881</v>
+        <v>0.8617096543312073</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9096861481666565</v>
+        <v>0.8549759984016418</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9822288751602173</v>
+        <v>0.9691666960716248</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9112986326217651</v>
+        <v>0.8570950627326965</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9832156300544739</v>
+        <v>0.9707249402999878</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9111924171447754</v>
+        <v>0.8576407432556152</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8416299223899841</v>
+        <v>0.7900121212005615</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9832243919372559</v>
+        <v>0.9707465171813965</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8809205293655396</v>
+        <v>0.8200608491897583</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.846840500831604</v>
+        <v>0.7971558570861816</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9120680093765259</v>
+        <v>0.8580838441848755</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.849490225315094</v>
+        <v>0.8004805445671082</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8409523963928223</v>
+        <v>0.7899768948554993</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6959300637245178</v>
+        <v>0.5906558036804199</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8382138013839722</v>
+        <v>0.7871923446655273</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9830153584480286</v>
+        <v>0.970403790473938</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.843570351600647</v>
+        <v>0.7933677434921265</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8392766714096069</v>
+        <v>0.7878158688545227</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9801612496376038</v>
+        <v>0.9659664034843445</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.843570351600647</v>
+        <v>0.7933677434921265</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8437259793281555</v>
+        <v>0.7936618328094482</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9821429848670959</v>
+        <v>0.9690489172935486</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9823710918426514</v>
+        <v>0.9693986773490906</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9833959341049194</v>
+        <v>0.971009373664856</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9096270799636841</v>
+        <v>0.8549830317497253</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9831379652023315</v>
+        <v>0.9706048965454102</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9817757606506348</v>
+        <v>0.9684227705001831</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.982262909412384</v>
+        <v>0.9692392945289612</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9830784201622009</v>
+        <v>0.9705166220664978</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9121932983398438</v>
+        <v>0.858206570148468</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5376225113868713</v>
+        <v>0.4701253771781921</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9097139835357666</v>
+        <v>0.8550222516059875</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9097139835357666</v>
+        <v>0.8550222516059875</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9122166037559509</v>
+        <v>0.8582479357719421</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9097139835357666</v>
+        <v>0.8550222516059875</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7573522925376892</v>
+        <v>0.6629220843315125</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9821751713752747</v>
+        <v>0.9690877795219421</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9117676615715027</v>
+        <v>0.8580361008644104</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9780264496803284</v>
+        <v>0.9627251029014587</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9112411141395569</v>
+        <v>0.8570774793624878</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9813000559806824</v>
+        <v>0.9677225351333618</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9814766049385071</v>
+        <v>0.9680004715919495</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9112411141395569</v>
+        <v>0.8570774793624878</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9803240299224854</v>
+        <v>0.9662197828292847</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9112411141395569</v>
+        <v>0.8570774793624878</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9825971722602844</v>
+        <v>0.9697502255439758</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9113149046897888</v>
+        <v>0.8571163415908813</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9803276658058167</v>
+        <v>0.9662280082702637</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9113149046897888</v>
+        <v>0.8571163415908813</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9748929738998413</v>
+        <v>0.9580457210540771</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9748929738998413</v>
+        <v>0.9580457210540771</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9833858609199524</v>
+        <v>0.9710039496421814</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9121589660644531</v>
+        <v>0.8583227396011353</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9825782179832458</v>
+        <v>0.9696968793869019</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9112852811813354</v>
+        <v>0.8570865988731384</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9803107380867004</v>
+        <v>0.9661950469017029</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9812760353088379</v>
+        <v>0.967691957950592</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9812724590301514</v>
+        <v>0.9676865935325623</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9812891483306885</v>
+        <v>0.9677107930183411</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9812687039375305</v>
+        <v>0.9676831364631653</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9812646508216858</v>
+        <v>0.9676802158355713</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9812827110290527</v>
+        <v>0.9677029848098755</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9834856986999512</v>
+        <v>0.9711548089981079</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3323231637477875</v>
+        <v>0.2291872203350067</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9829381108283997</v>
+        <v>0.9702770709991455</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9804083108901978</v>
+        <v>0.9663332104682922</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9794227480888367</v>
+        <v>0.9648392796516418</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9826650619506836</v>
+        <v>0.9698556065559387</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.710297167301178</v>
+        <v>0.6043200492858887</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.8450906276702881</v>
+        <v>0.7935317158699036</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9814696311950684</v>
+        <v>0.9679892063140869</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.7676957845687866</v>
+        <v>0.6751619577407837</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9794475436210632</v>
+        <v>0.9648862481117249</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.847697377204895</v>
+        <v>0.7982404828071594</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.6944261193275452</v>
+        <v>0.5880357027053833</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9804837107658386</v>
+        <v>0.9664533138275146</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9802707433700562</v>
+        <v>0.9661538004875183</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.841921329498291</v>
+        <v>0.7913451194763184</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.8469001054763794</v>
+        <v>0.7971522808074951</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9133279919624329</v>
+        <v>0.8598190546035767</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9830970764160156</v>
+        <v>0.9705272912979126</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9132952690124512</v>
+        <v>0.859849214553833</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9748420119285583</v>
+        <v>0.9579460620880127</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9777141213417053</v>
+        <v>0.9622494578361511</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.7300659418106079</v>
+        <v>0.6367766261100769</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9820191860198975</v>
+        <v>0.9688454866409302</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9802707433700562</v>
+        <v>0.9661538004875183</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.7576180100440979</v>
+        <v>0.663338840007782</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9830288887023926</v>
+        <v>0.9704216122627258</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.7576180100440979</v>
+        <v>0.663338840007782</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9830288887023926</v>
+        <v>0.9704216122627258</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.7576180100440979</v>
+        <v>0.663338840007782</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9828208684921265</v>
+        <v>0.9700888991355896</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9803581237792969</v>
+        <v>0.9664783477783203</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9802707433700562</v>
+        <v>0.9661538004875183</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9820960760116577</v>
+        <v>0.9689670205116272</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9793287515640259</v>
+        <v>0.9646995067596436</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9776792526245117</v>
+        <v>0.9621995687484741</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.8308930397033691</v>
+        <v>0.7813013195991516</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9815123081207275</v>
+        <v>0.9680511951446533</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9812524914741516</v>
+        <v>0.9676516652107239</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9822032451629639</v>
+        <v>0.9691336750984192</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9743369817733765</v>
+        <v>0.9572490453720093</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9814965724945068</v>
+        <v>0.9680280685424805</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9777020215988159</v>
+        <v>0.9622490406036377</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9777129292488098</v>
+        <v>0.9622609615325928</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9802968502044678</v>
+        <v>0.9661880731582642</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.629240870475769</v>
+        <v>0.5173559188842773</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9802707433700562</v>
+        <v>0.9661538004875183</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9097350835800171</v>
+        <v>0.8550397157669067</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9817781448364258</v>
+        <v>0.9684639573097229</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9097350835800171</v>
+        <v>0.8550397157669067</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9747990369796753</v>
+        <v>0.9579491019248962</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.7573522925376892</v>
+        <v>0.6629220843315125</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9804226756095886</v>
+        <v>0.9663780331611633</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9111796617507935</v>
+        <v>0.8569359183311462</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.7595611214637756</v>
+        <v>0.6656426191329956</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9802707433700562</v>
+        <v>0.9661538004875183</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.6885489225387573</v>
+        <v>0.5807377099990845</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9832217693328857</v>
+        <v>0.9707342982292175</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.698469877243042</v>
+        <v>0.5918747782707214</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9829373955726624</v>
+        <v>0.970273494720459</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.6986684203147888</v>
+        <v>0.5922685861587524</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9817620515823364</v>
+        <v>0.9684345126152039</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.6988246440887451</v>
+        <v>0.592470645904541</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9820654988288879</v>
+        <v>0.968906581401825</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9126721620559692</v>
+        <v>0.8590959310531616</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9805238246917725</v>
+        <v>0.9665179252624512</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9748657941818237</v>
+        <v>0.9595066905021667</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9777038097381592</v>
+        <v>0.9622535705566406</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9096037745475769</v>
+        <v>0.8549422025680542</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9834228754043579</v>
+        <v>0.9710501432418823</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9749221205711365</v>
+        <v>0.958094596862793</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.8342314958572388</v>
+        <v>0.7828659415245056</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9131019115447998</v>
+        <v>0.8594133257865906</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9802707433700562</v>
+        <v>0.9661538004875183</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.8342314958572388</v>
+        <v>0.7828659415245056</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9121641516685486</v>
+        <v>0.8581753969192505</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9802707433700562</v>
+        <v>0.9661538004875183</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9776768088340759</v>
+        <v>0.9622048735618591</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9776883125305176</v>
+        <v>0.9622272849082947</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9776768088340759</v>
+        <v>0.9622048735618591</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9776768088340759</v>
+        <v>0.9622048735618591</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9776883125305176</v>
+        <v>0.9622272849082947</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9804434180259705</v>
+        <v>0.9664161205291748</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9780483245849609</v>
+        <v>0.9627752900123596</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9814923405647278</v>
+        <v>0.9680394530296326</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9827587008476257</v>
+        <v>0.9700078964233398</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9822006225585938</v>
+        <v>0.9691231846809387</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.7654016613960266</v>
+        <v>0.6726731061935425</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9830099940299988</v>
+        <v>0.9703980684280396</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9832225441932678</v>
+        <v>0.9707534909248352</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9824056029319763</v>
+        <v>0.9694637656211853</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.98203045129776</v>
+        <v>0.9688794612884521</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9804859161376953</v>
+        <v>0.9664950966835022</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9812455177307129</v>
+        <v>0.9676538705825806</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9812596440315247</v>
+        <v>0.9676755666732788</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.3125219941139221</v>
+        <v>0.2184778153896332</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9822439551353455</v>
+        <v>0.9691849946975708</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9815296530723572</v>
+        <v>0.9680802226066589</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.7576678395271301</v>
+        <v>0.6634126901626587</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.8431581854820251</v>
+        <v>0.7928000092506409</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9829621911048889</v>
+        <v>0.9703297019004822</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9820390343666077</v>
+        <v>0.9688848853111267</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.982366144657135</v>
+        <v>0.969395637512207</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9826105237007141</v>
+        <v>0.9697731137275696</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9110000729560852</v>
+        <v>0.8568694591522217</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9826297760009766</v>
+        <v>0.9697928428649902</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9826453924179077</v>
+        <v>0.9698230028152466</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9815093278884888</v>
+        <v>0.9680533409118652</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.8343648314476013</v>
+        <v>0.7830924987792969</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9826992750167847</v>
+        <v>0.969897449016571</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9776586890220642</v>
+        <v>0.9621883034706116</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.3278326392173767</v>
+        <v>0.2274097949266434</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9780187606811523</v>
+        <v>0.962721049785614</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.3096999824047089</v>
+        <v>0.3117727339267731</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9814437627792358</v>
+        <v>0.9679591655731201</v>
       </c>
     </row>
   </sheetData>
